--- a/results.xlsx
+++ b/results.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="25">
   <si>
     <t xml:space="preserve">trail number</t>
   </si>
@@ -41,6 +41,9 @@
     <t xml:space="preserve">cartoon test</t>
   </si>
   <si>
+    <t xml:space="preserve">weights init</t>
+  </si>
+  <si>
     <t xml:space="preserve">result</t>
   </si>
   <si>
@@ -50,6 +53,9 @@
     <t xml:space="preserve">adam</t>
   </si>
   <si>
+    <t xml:space="preserve">imagenet</t>
+  </si>
+  <si>
     <t xml:space="preserve">sgd</t>
   </si>
   <si>
@@ -57,6 +63,9 @@
   </si>
   <si>
     <t xml:space="preserve">train on united train set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xavier</t>
   </si>
   <si>
     <t xml:space="preserve">type</t>
@@ -192,19 +201,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
+      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.18"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -229,13 +238,16 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0.001</v>
@@ -249,16 +261,19 @@
       <c r="F2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="0" t="n">
         <v>60.77</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0.001</v>
@@ -272,16 +287,19 @@
       <c r="F3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="0" t="n">
         <v>60.02</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0.001</v>
@@ -295,16 +313,19 @@
       <c r="F4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="0" t="n">
         <v>59.96</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0.001</v>
@@ -318,16 +339,19 @@
       <c r="F5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="0" t="n">
         <v>60.55</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0.0001</v>
@@ -341,16 +365,19 @@
       <c r="F6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="0" t="n">
         <v>63.89</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0.0001</v>
@@ -364,16 +391,19 @@
       <c r="F7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="0" t="n">
         <v>63.78</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0.0001</v>
@@ -387,16 +417,19 @@
       <c r="F8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="0" t="n">
         <v>63.19</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0.0001</v>
@@ -410,16 +443,19 @@
       <c r="F9" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="0" t="n">
         <v>60.94</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0.1</v>
@@ -433,19 +469,22 @@
       <c r="F10" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="0" t="n">
         <v>58.48</v>
       </c>
-      <c r="H10" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I10" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0.1</v>
@@ -459,19 +498,22 @@
       <c r="F11" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="0" t="n">
         <v>58.04</v>
       </c>
-      <c r="H11" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I11" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0.1</v>
@@ -485,19 +527,22 @@
       <c r="F12" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="0" t="n">
         <v>57.62</v>
       </c>
-      <c r="H12" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I12" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0.1</v>
@@ -511,19 +556,22 @@
       <c r="F13" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="0" t="n">
         <v>58.23</v>
       </c>
-      <c r="H13" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I13" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0.0001</v>
@@ -537,16 +585,19 @@
       <c r="F14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="0" t="n">
         <v>64.06</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0.0001</v>
@@ -560,16 +611,19 @@
       <c r="F15" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="0" t="n">
         <v>63.5</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0.0001</v>
@@ -583,16 +637,19 @@
       <c r="F16" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="0" t="n">
         <v>54.28</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0.0001</v>
@@ -606,16 +663,19 @@
       <c r="F17" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="0" t="n">
         <v>56.73</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0.0001</v>
@@ -629,16 +689,19 @@
       <c r="F18" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="G18" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="0" t="n">
         <v>56.23</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0.0001</v>
@@ -652,16 +715,19 @@
       <c r="F19" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="G19" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="0" t="n">
         <v>56.76</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0.0001</v>
@@ -675,16 +741,19 @@
       <c r="F20" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="G20" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="0" t="n">
         <v>56.34</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0.0001</v>
@@ -698,16 +767,19 @@
       <c r="F21" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="G21" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="0" t="n">
         <v>31.99</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>0.1</v>
@@ -721,19 +793,22 @@
       <c r="F22" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="G22" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="0" t="n">
         <v>58.93</v>
       </c>
-      <c r="H22" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I22" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>0.1</v>
@@ -747,19 +822,22 @@
       <c r="F23" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="G23" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="0" t="n">
         <v>54.92</v>
       </c>
-      <c r="H23" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I23" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>0.1</v>
@@ -773,19 +851,22 @@
       <c r="F24" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G24" s="0" t="n">
+      <c r="G24" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="0" t="n">
         <v>60.3</v>
       </c>
-      <c r="H24" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I24" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>0.1</v>
@@ -799,19 +880,22 @@
       <c r="F25" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="G25" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="0" t="n">
         <v>57.34</v>
       </c>
-      <c r="H25" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I25" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>0.0001</v>
@@ -825,19 +909,22 @@
       <c r="F26" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="G26" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="0" t="n">
         <v>63.05</v>
       </c>
-      <c r="H26" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I26" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>0.0001</v>
@@ -851,19 +938,22 @@
       <c r="F27" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G27" s="0" t="n">
+      <c r="G27" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="0" t="n">
         <v>62.55</v>
       </c>
-      <c r="H27" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I27" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>0.0001</v>
@@ -877,19 +967,22 @@
       <c r="F28" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="G28" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="0" t="n">
         <v>62.64</v>
       </c>
-      <c r="H28" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I28" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>0.1</v>
@@ -903,19 +996,22 @@
       <c r="F29" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G29" s="0" t="n">
+      <c r="G29" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="0" t="n">
         <v>57.73</v>
       </c>
-      <c r="H29" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I29" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>0.1</v>
@@ -929,19 +1025,22 @@
       <c r="F30" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="G30" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="0" t="n">
         <v>58.68</v>
       </c>
-      <c r="H30" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I30" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>0.1</v>
@@ -955,17 +1054,257 @@
       <c r="F31" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G31" s="0" t="n">
+      <c r="G31" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="0" t="n">
         <v>57.82</v>
       </c>
-      <c r="H31" s="0" t="s">
-        <v>11</v>
+      <c r="I31" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>63.42</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>64.36</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>62.75</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>56.9</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>56.56</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>55.89</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>56.59</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>48.31</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>57.17</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -984,10 +1323,10 @@
       <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.59"/>
@@ -996,33 +1335,33 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>64.06</v>
@@ -1036,13 +1375,13 @@
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>64.06</v>
@@ -1057,10 +1396,10 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>